--- a/data_original/欧洲参数.xlsx
+++ b/data_original/欧洲参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\githubuse\MpoxPredict\data_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510B632-7B46-4CDA-BFE5-4160184A1528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A174EC2-F780-4BEF-B06C-00478B338285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,11 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG61"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE21" sqref="AE21"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1076,251 +1076,6 @@
       </c>
       <c r="AG12">
         <v>957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>
